--- a/yearly_earnings_per_share_pivot_table.xlsx
+++ b/yearly_earnings_per_share_pivot_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD87BDF6A3711797A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11553524-1671-4DF6-81DF-DC9020FA630B}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD82267AD2A97787A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32200E7E-F11C-406F-9D3B-56218D753754}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/yearly_earnings_per_share_pivot_table.xlsx
+++ b/yearly_earnings_per_share_pivot_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD84A0F692457797A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09199C92-4AF8-4F08-BD1C-5119380BCF1D}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD835772C2531797A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39670EBC-E1AE-4576-89CA-F19BBBEA1191}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/yearly_earnings_per_share_pivot_table.xlsx
+++ b/yearly_earnings_per_share_pivot_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD835772C2531797A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39670EBC-E1AE-4576-89CA-F19BBBEA1191}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD8387F2C3011797A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA4C2B6D-8DB8-4078-87DC-83C0B7728317}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/yearly_earnings_per_share_pivot_table.xlsx
+++ b/yearly_earnings_per_share_pivot_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD8387F2C3011797A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA4C2B6D-8DB8-4078-87DC-83C0B7728317}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD8D367690D61797A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82514A2D-35F8-4F09-B1EE-AC9597AB4BF7}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/yearly_earnings_per_share_pivot_table.xlsx
+++ b/yearly_earnings_per_share_pivot_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD8D367690D61797A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82514A2D-35F8-4F09-B1EE-AC9597AB4BF7}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD877DFEA213D787A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BF4F818-5707-46FD-AA12-A1DA1BC99048}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/yearly_earnings_per_share_pivot_table.xlsx
+++ b/yearly_earnings_per_share_pivot_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD877DFEA213D787A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BF4F818-5707-46FD-AA12-A1DA1BC99048}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD88A27E91DF9787A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97310AFF-5A79-4BDB-8EEA-26A5C875C839}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/yearly_earnings_per_share_pivot_table.xlsx
+++ b/yearly_earnings_per_share_pivot_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD88A27E91DF9787A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97310AFF-5A79-4BDB-8EEA-26A5C875C839}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD8721F2E3693797A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B04D470F-2297-405D-AB36-44EE054D1EEE}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/yearly_earnings_per_share_pivot_table.xlsx
+++ b/yearly_earnings_per_share_pivot_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD8857F2F238D787A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAAB7154-A19D-4774-A994-91EB4E497DE8}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD8053F6A363F797A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEB4476D-AD12-45BE-B8BE-F5E9868A865E}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/yearly_earnings_per_share_pivot_table.xlsx
+++ b/yearly_earnings_per_share_pivot_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD8053F6A363F797A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEB4476D-AD12-45BE-B8BE-F5E9868A865E}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD89E6F6B0C63787A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{937F8D56-4BCD-4FC9-A324-82C5D998C2EA}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/yearly_earnings_per_share_pivot_table.xlsx
+++ b/yearly_earnings_per_share_pivot_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD89E6F6B0C63787A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{937F8D56-4BCD-4FC9-A324-82C5D998C2EA}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD842C7AB1303787A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B91E3D5-1716-4766-8B7E-1CD202A2FAF3}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
